--- a/2016년 수강료 6월/컴퓨터 수강료.xlsx
+++ b/2016년 수강료 6월/컴퓨터 수강료.xlsx
@@ -522,28 +522,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -567,25 +567,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -621,7 +621,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="쉼표 [0]" xfId="9" builtinId="6"/>
@@ -927,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
